--- a/ProductManager/bin/Debug/base.xlsx
+++ b/ProductManager/bin/Debug/base.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="144">
   <si>
     <t>u</t>
   </si>
@@ -140,310 +140,328 @@
     <t>https://www.amazon.com/best-sellers-video-games/zgbs/videogames/ref=zg_bs_nav_0</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Amazon-Fire-TV-Stick-With-Alexa-Voice-Remote-Streaming-Media-Player/dp/B00ZV9RDKK/ref=zg_bs_amazon-devices_1?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Echo-Dot-Portable-Bluetooth-Speaker-with-Alexa-Black/dp/B01DFKC2SO/ref=zg_bs_amazon-devices_2?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hands-Free-Alexa-Ultra-Streaming-Player/dp/B01NBTFNVA/ref=zg_bs_amazon-devices_3?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Certified-Refurbished-Remote-Streaming-Player/dp/B01ETRH0AM/ref=zg_bs_amazon-devices_4?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/all-new-amazon-echo-speaker-with-wifi-alexa-dark-charcoal/dp/B06XCM9LJ4/ref=zg_bs_amazon-devices_5?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/all-new-amazon-fire-tv-4k-uhd-streaming-media-player/dp/B01N32NCPM/ref=zg_bs_amazon-devices_6?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Kindle-Paperwhite-6-Inch-4GB-eReader/dp/B00OQVZDJM/ref=zg_bs_amazon-devices_7?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/All-New-Amazon-Fire-7-Tablet/dp/B01GEW27DA/ref=zg_bs_amazon-devices_8?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Ethernet-Adapter-Fire-Devices/dp/B074TC662N/ref=zg_bs_amazon-devices_9?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Echo-Dot-Portable-Bluetooth-Speaker-with-Alexa-White/dp/B015TJD0Y4/ref=zg_bs_amazon-devices_10?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SanDisk-micro-Memory-Card-Tablets/dp/B013TMNKAW/ref=zg_bs_amazon-devices_11?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-8-Tablet-With-Alexa/dp/B01J94SWWU/ref=zg_bs_amazon-devices_12?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Official-Charger-Adapter-eReaders/dp/B01J2G4VBG/ref=zg_bs_amazon-devices_13?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-VN94DQ-Echo-Spot-Black/dp/B073SQYXTW/ref=zg_bs_amazon-devices_14?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-10-Inch-Tablet-32GB-Black/dp/B01J6RPGKG/ref=zg_bs_amazon-devices_15?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-8-Kids-Edition-Tablet/dp/B01J94SBEY/ref=zg_bs_amazon-devices_16?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Alexa-Voice-Remote-Amazon-Stick/dp/B071D41YC3/ref=zg_bs_amazon-devices_17?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Kindle-Paperwhite-reader-High-Resolution-Built/dp/B01BFIBRIE/ref=zg_bs_amazon-devices_18?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Marine/dp/B01IO618J8/ref=zg_bs_amazon-devices_19?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Echo-Show-Alexa-Enabled-Black/dp/B01J24C0TI/ref=zg_bs_amazon-devices_20?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/all-new-amazon-echo-speaker-with-wifi-alexa-heather-gray/dp/B0749WVS7J/ref=zg_bs_amazon-devices_21?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Kindle-eReader-6-Inch-Touchscreen/dp/B00ZV9PXP2/ref=zg_bs_amazon-devices_22?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Introducing-Amazon-Cloud-Cam/dp/B01C4UY0JK/ref=zg_bs_amazon-devices_23?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/2-Year-Protection-Amazon-release-delivered/dp/B01IQEADEE/ref=zg_bs_amazon-devices_24?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Punch/dp/B01J90OCNM/ref=zg_bs_amazon-devices_25?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/all-new-amazon-echo-speaker-with-wifi-alexa-sandstone/dp/B06XXM5BPP/ref=zg_bs_amazon-devices_26?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fire-Kids-Tablet-Display-Kid-Proof/dp/B01J94SCAM/ref=zg_bs_amazon-devices_27?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Micro-USB-Cable-works-Tablets/dp/B006GWO5NE/ref=zg_bs_amazon-devices_28?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/All-New-Amazon-Fire-7-Kids-Edition-Tablet/dp/B01J90MSDS/ref=zg_bs_amazon-devices_29?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Kindle-Paperwhite-reader-High-Resolution-Built/dp/B00QJE3MGU/ref=zg_bs_amazon-devices_30?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SanDisk-micro-Memory-Card-Tablets/dp/B013TMNNDQ/ref=zg_bs_amazon-devices_31?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Marine/dp/B01J94YIT6/ref=zg_bs_amazon-devices_32?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Black/dp/B01J94T4R2/ref=zg_bs_amazon-devices_33?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Certified-Refurbished-Tablet-Alexa-Display/dp/B01J94TEAE/ref=zg_bs_amazon-devices_34?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Certified-Refurbished-Echo-Dot-Generation/dp/B01DFKBI6G/ref=zg_bs_amazon-devices_35?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-10-Inch-Tablet-32GB-Blue/dp/B01M6YJEAH/ref=zg_bs_amazon-devices_36?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Screen-Protector-Amazon-Tablet-Generation/dp/B06Y5VFLPT/ref=zg_bs_amazon-devices_37?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fire-Kids-Tablet-Display-Kid-Proof/dp/B01J90MOVY/ref=zg_bs_amazon-devices_38?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Fire-HD-10-Tablet-Case-Charcoal-Black/dp/B01MSPQ4TL/ref=zg_bs_amazon-devices_39?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Verbatim-CD-R-700MB-Minute-Recordable/dp/B003ZDNZSI/ref=zg_bs_amazon-devices_40?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Certified-Refurbished-All-new-Generation-improved/dp/B071P72R59/ref=zg_bs_amazon-devices_41?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-VN94DQ-Echo-Spot-White/dp/B073SRJD46/ref=zg_bs_amazon-devices_42?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Tablet-Alexa-Display-Canary-Yellow/dp/B01J90O7KK/ref=zg_bs_amazon-devices_43?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Kindle-Voyage-6-Inch-4GB-eReader/dp/B00IOY8XWQ/ref=zg_bs_amazon-devices_44?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Punch/dp/B01J94TG3E/ref=zg_bs_amazon-devices_45?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SanDisk-micro-Memory-Card-Tablets/dp/B013TMNPBQ/ref=zg_bs_amazon-devices_46?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Replacement-Remote-Amazon-Fire-Stick/dp/B00LORGAG6/ref=zg_bs_amazon-devices_47?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Tap-Portable-Wireless-Bluetooth-Speaker-with-WiFi-Alexa/dp/B01BH83OOM/ref=zg_bs_amazon-devices_48?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Kindle-Paperwhite-Leather-Black/dp/B007R5YFS4/ref=zg_bs_amazon-devices_49?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Verbatim-94691-700MB-Minute-Recordable/dp/B00029U1DK/ref=zg_bs_amazon-devices_50?_encoding=UTF8&amp;psc=1&amp;refRID=0T0QTDPZCCDNJ6E1HAGW</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fire-Tablet-Display-Yellow-Kid-Proof/dp/B01J94SBMQ/ref=zg_bs_amazon-devices_51?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-10-Inch-Tablet-32GB-Red/dp/B01M7RD5ZL/ref=zg_bs_amazon-devices_52?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-10-Inch-Tablet-64GB-Black/dp/B01NGTRMNR/ref=zg_bs_amazon-devices_53?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Screen-Protector-Amazon-Tablet-Generation/dp/B074Q2NYTG/ref=zg_bs_amazon-devices_54?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/3-Year-Protection-Plan-Amazon-release/dp/B01IQEA9AM/ref=zg_bs_amazon-devices_55?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Marine/dp/B01J94T1Z2/ref=zg_bs_amazon-devices_56?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/2-Year-Protection-Accident-release-delivered/dp/B01IQD8R7U/ref=zg_bs_amazon-devices_57?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Certified-Refurbished-Tablet-Alexa-Display/dp/B01J90ONQ8/ref=zg_bs_amazon-devices_58?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Echo-Show-Alexa-Enabled-White/dp/B010CEHQTG/ref=zg_bs_amazon-devices_59?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Tablet-Alexa-Display-Canary-Yellow/dp/B01J94T29W/ref=zg_bs_amazon-devices_60?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/2-Year-Protection-Accident-release-delivered/dp/B01IQD9FJE/ref=zg_bs_amazon-devices_61?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Black/dp/B01GEVWOG6/ref=zg_bs_amazon-devices_62?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Kindle-reader-Glare-Free-Touchscreen-Built/dp/B017JG41PC/ref=zg_bs_amazon-devices_63?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Fire-HD-10-Tablet-Case-Marine-Blue/dp/B01MXOV9P7/ref=zg_bs_amazon-devices_64?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Sideclick-Remotes-SC2-FT16K-Universal-Attachment/dp/B01MRFY61G/ref=zg_bs_amazon-devices_65?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Protective-Cover-Kindle-Paperwhite/dp/B01CO4XWDQ/ref=zg_bs_amazon-devices_66?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-10-Inch-Tablet-32GB-Black/dp/B01J6RPDWC/ref=zg_bs_amazon-devices_67?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Screen-Protector-Amazon-Tablet-Generation/dp/B06Y5NBSX7/ref=zg_bs_amazon-devices_68?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/all-new-amazon-echo-speaker-with-wifi-alexa-walnut/dp/B0752151W6/ref=zg_bs_amazon-devices_69?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Kindle-Paperwhite-reader-High-Resolution-Built/dp/B01BFIAY9C/ref=zg_bs_amazon-devices_70?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Fire-7-Tablet-5th-Generation/dp/B00TSUGXKE/ref=zg_bs_amazon-devices_71?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/amazon-fire-tv-stick-and-echo-dot-bundle/dp/B0758XXCSC/ref=zg_bs_amazon-devices_72?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fire-Tablet-Display-Yellow-Kid-Proof/dp/B01J90N2IS/ref=zg_bs_amazon-devices_73?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Fire-TV-Stick-Streaming-Media-Player-Previous-Generation/dp/B00GDQ0RMG/ref=zg_bs_amazon-devices_74?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Echo-Spot-Adjustable-Stand-Black/dp/B06ZZY14LK/ref=zg_bs_amazon-devices_75?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Alexa-Voice-Remote-Amazon-Echo/dp/B01E9AHU8Q/ref=zg_bs_amazon-devices_76?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/all-new-amazon-echo-plus-speaker-with-smart-home-hub-black/dp/B015S1SWLO/ref=zg_bs_amazon-devices_77?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/2-Year-Protection-Accident-release-delivered/dp/B01IQD7UAU/ref=zg_bs_amazon-devices_78?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Verbatim-CD-R-700MB-Minute-Recordable/dp/B00029U1DU/ref=zg_bs_amazon-devices_79?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Certified-Refurbished-Remote-Pendant-Streaming/dp/B06XTWZL2W/ref=zg_bs_amazon-devices_80?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/All-New-Amazon-Kindle-Oasis-8GB-Grey/dp/B06XD5YCKX/ref=zg_bs_amazon-devices_81?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/NuPro-Zipper-Sleeve-Fire-Tablets/dp/B06Y62D69Z/ref=zg_bs_amazon-devices_82?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Certified-Refurbished-Tablet-Hands-Free-Display/dp/B01MEG2HXP/ref=zg_bs_amazon-devices_83?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Echo-Buttons-Alexa-Gadget-Pack/dp/B072C4KCQH/ref=zg_bs_amazon-devices_84?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Certified-Refurbished-Kindle-Paperwhite-reader/dp/B00QJEL42Y/ref=zg_bs_amazon-devices_85?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fintie-Slimshell-Case-Kindle-Paperwhite/dp/B01M8LKA87/ref=zg_bs_amazon-devices_86?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-10-Inch-Tablet-64GB-Blue/dp/B01NBIKAXU/ref=zg_bs_amazon-devices_87?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Protection-Accident-Paperwhite-release-delivered/dp/B00Y3D2MMO/ref=zg_bs_amazon-devices_88?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/amazon-echo-dot-kids-edition/dp/B077JFK5YH/ref=zg_bs_amazon-devices_89?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/AWS-DeepLens-learning-enabled-developers/dp/B075Y3CK37/ref=zg_bs_amazon-devices_90?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Echo-Case-fits-Generation/dp/B01K9KW9A4/ref=zg_bs_amazon-devices_91?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-JK29LP-Cascade-Dash-Button/dp/B01C3JB71G/ref=zg_bs_amazon-devices_92?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/OMOTON-Fire-HD-Screen-Protector/dp/B0144AAIWQ/ref=zg_bs_amazon-devices_93?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Fire-HD-10-Tablet-Case-Punch-Red/dp/B01MRO1IZE/ref=zg_bs_amazon-devices_94?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Echo-Plus-built-Hub-included/dp/B075RPT9WT/ref=zg_bs_amazon-devices_95?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Certified-Refurbished-Kindle-reader-Touchscreen/dp/B0186FFTH4/ref=zg_bs_amazon-devices_96?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Black/dp/B01J94T6F2/ref=zg_bs_amazon-devices_97?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Black/dp/B01J94TBWU/ref=zg_bs_amazon-devices_98?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/All-New-Amazon-Kindle-Oasis-32GB-Grey/dp/B06XCWLL12/ref=zg_bs_amazon-devices_99?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Fire-Tablet-Variety-Display-Kid-Proof/dp/B072BYGPPZ/ref=zg_bs_amazon-devices_100?_encoding=UTF8&amp;psc=1&amp;refRID=BQ5K8ECSD9RPR4A0RZE7</t>
+    <t>https://www.amazon.com/Amazon-Fire-TV-Stick-With-Alexa-Voice-Remote-Streaming-Media-Player/dp/B00ZV9RDKK/ref=zg_bs_amazon-devices_1?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Echo-Dot-Portable-Bluetooth-Speaker-with-Alexa-Black/dp/B01DFKC2SO/ref=zg_bs_amazon-devices_2?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hands-Free-Alexa-Ultra-Streaming-Player/dp/B01NBTFNVA/ref=zg_bs_amazon-devices_3?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Certified-Refurbished-Remote-Streaming-Player/dp/B01ETRH0AM/ref=zg_bs_amazon-devices_4?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/all-new-amazon-fire-tv-4k-uhd-streaming-media-player/dp/B01N32NCPM/ref=zg_bs_amazon-devices_5?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/all-new-amazon-echo-speaker-with-wifi-alexa-dark-charcoal/dp/B06XCM9LJ4/ref=zg_bs_amazon-devices_6?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Kindle-Paperwhite-6-Inch-4GB-eReader/dp/B00OQVZDJM/ref=zg_bs_amazon-devices_7?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/All-New-Amazon-Fire-7-Tablet/dp/B01GEW27DA/ref=zg_bs_amazon-devices_8?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Ethernet-Adapter-Fire-Devices/dp/B074TC662N/ref=zg_bs_amazon-devices_9?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Echo-Dot-Portable-Bluetooth-Speaker-with-Alexa-White/dp/B015TJD0Y4/ref=zg_bs_amazon-devices_10?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SanDisk-micro-Memory-Card-Tablets/dp/B013TMNKAW/ref=zg_bs_amazon-devices_11?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-8-Tablet-With-Alexa/dp/B01J94SWWU/ref=zg_bs_amazon-devices_12?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Official-Charger-Adapter-eReaders/dp/B01J2G4VBG/ref=zg_bs_amazon-devices_13?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-VN94DQ-Echo-Spot-Black/dp/B073SQYXTW/ref=zg_bs_amazon-devices_14?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-10-Inch-Tablet-32GB-Black/dp/B01J6RPGKG/ref=zg_bs_amazon-devices_15?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Alexa-Voice-Remote-Amazon-Stick/dp/B071D41YC3/ref=zg_bs_amazon-devices_16?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-8-Kids-Edition-Tablet/dp/B01J94SBEY/ref=zg_bs_amazon-devices_17?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Kindle-Paperwhite-reader-High-Resolution-Built/dp/B01BFIBRIE/ref=zg_bs_amazon-devices_18?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Marine/dp/B01IO618J8/ref=zg_bs_amazon-devices_19?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/all-new-amazon-echo-speaker-with-wifi-alexa-heather-gray/dp/B0749WVS7J/ref=zg_bs_amazon-devices_20?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Echo-Show-Alexa-Enabled-Black/dp/B01J24C0TI/ref=zg_bs_amazon-devices_21?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Kindle-eReader-6-Inch-Touchscreen/dp/B00ZV9PXP2/ref=zg_bs_amazon-devices_22?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/2-Year-Protection-Amazon-release-delivered/dp/B01IQEADEE/ref=zg_bs_amazon-devices_23?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Introducing-Amazon-Cloud-Cam/dp/B01C4UY0JK/ref=zg_bs_amazon-devices_24?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Punch/dp/B01J90OCNM/ref=zg_bs_amazon-devices_25?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fire-Kids-Tablet-Display-Kid-Proof/dp/B01J94SCAM/ref=zg_bs_amazon-devices_26?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/All-New-Amazon-Fire-7-Kids-Edition-Tablet/dp/B01J90MSDS/ref=zg_bs_amazon-devices_27?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Micro-USB-Cable-works-Tablets/dp/B006GWO5NE/ref=zg_bs_amazon-devices_28?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Kindle-Paperwhite-reader-High-Resolution-Built/dp/B00QJE3MGU/ref=zg_bs_amazon-devices_29?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/all-new-amazon-echo-speaker-with-wifi-alexa-sandstone/dp/B06XXM5BPP/ref=zg_bs_amazon-devices_30?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Marine/dp/B01J94YIT6/ref=zg_bs_amazon-devices_31?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SanDisk-micro-Memory-Card-Tablets/dp/B013TMNNDQ/ref=zg_bs_amazon-devices_32?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Black/dp/B01J94T4R2/ref=zg_bs_amazon-devices_33?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Certified-Refurbished-Tablet-Alexa-Display/dp/B01J94TEAE/ref=zg_bs_amazon-devices_34?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Certified-Refurbished-Echo-Dot-Generation/dp/B01DFKBI6G/ref=zg_bs_amazon-devices_35?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Screen-Protector-Amazon-Tablet-Generation/dp/B06Y5VFLPT/ref=zg_bs_amazon-devices_36?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fire-Kids-Tablet-Display-Kid-Proof/dp/B01J90MOVY/ref=zg_bs_amazon-devices_37?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Kindle-Voyage-6-Inch-4GB-eReader/dp/B00IOY8XWQ/ref=zg_bs_amazon-devices_38?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-VN94DQ-Echo-Spot-White/dp/B073SRJD46/ref=zg_bs_amazon-devices_39?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-10-Inch-Tablet-32GB-Blue/dp/B01M6YJEAH/ref=zg_bs_amazon-devices_40?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Tablet-Alexa-Display-Canary-Yellow/dp/B01J90O7KK/ref=zg_bs_amazon-devices_41?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Fire-HD-10-Tablet-Case-Charcoal-Black/dp/B01MSPQ4TL/ref=zg_bs_amazon-devices_42?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Certified-Refurbished-All-new-Generation-improved/dp/B071P72R59/ref=zg_bs_amazon-devices_43?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SanDisk-micro-Memory-Card-Tablets/dp/B013TMNPBQ/ref=zg_bs_amazon-devices_44?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Punch/dp/B01J94TG3E/ref=zg_bs_amazon-devices_45?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Verbatim-CD-R-700MB-Minute-Recordable/dp/B003ZDNZSI/ref=zg_bs_amazon-devices_46?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Kindle-Paperwhite-Leather-Black/dp/B007R5YFS4/ref=zg_bs_amazon-devices_47?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Replacement-Remote-Amazon-Fire-Stick/dp/B00LORGAG6/ref=zg_bs_amazon-devices_48?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Tap-Portable-Wireless-Bluetooth-Speaker-with-WiFi-Alexa/dp/B01BH83OOM/ref=zg_bs_amazon-devices_49?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-10-Inch-Tablet-64GB-Black/dp/B01NGTRMNR/ref=zg_bs_amazon-devices_50?_encoding=UTF8&amp;psc=1&amp;refRID=KQR6AKT0MWWW5GPZBQPT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Verbatim-94691-700MB-Minute-Recordable/dp/B00029U1DK/ref=zg_bs_amazon-devices_51?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fire-Tablet-Display-Yellow-Kid-Proof/dp/B01J94SBMQ/ref=zg_bs_amazon-devices_52?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Marine/dp/B01J94T1Z2/ref=zg_bs_amazon-devices_53?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-10-Inch-Tablet-32GB-Red/dp/B01M7RD5ZL/ref=zg_bs_amazon-devices_54?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Screen-Protector-Amazon-Tablet-Generation/dp/B074Q2NYTG/ref=zg_bs_amazon-devices_55?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Certified-Refurbished-Tablet-Alexa-Display/dp/B01J90ONQ8/ref=zg_bs_amazon-devices_56?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/3-Year-Protection-Plan-Amazon-release/dp/B01IQEA9AM/ref=zg_bs_amazon-devices_57?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/2-Year-Protection-Accident-release-delivered/dp/B01IQD8R7U/ref=zg_bs_amazon-devices_58?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Black/dp/B01GEVWOG6/ref=zg_bs_amazon-devices_59?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Protective-Cover-Kindle-Paperwhite/dp/B01CO4XWDQ/ref=zg_bs_amazon-devices_60?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/2-Year-Protection-Accident-release-delivered/dp/B01IQD9FJE/ref=zg_bs_amazon-devices_61?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Tablet-Alexa-Display-Canary-Yellow/dp/B01J94T29W/ref=zg_bs_amazon-devices_62?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fire-Tablet-Display-Yellow-Kid-Proof/dp/B01J90N2IS/ref=zg_bs_amazon-devices_63?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Fire-HD-10-Tablet-Case-Marine-Blue/dp/B01MXOV9P7/ref=zg_bs_amazon-devices_64?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Echo-Show-Alexa-Enabled-White/dp/B010CEHQTG/ref=zg_bs_amazon-devices_65?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/all-new-amazon-echo-plus-speaker-with-smart-home-hub-black/dp/B015S1SWLO/ref=zg_bs_amazon-devices_66?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/all-new-amazon-echo-speaker-with-wifi-alexa-walnut/dp/B0752151W6/ref=zg_bs_amazon-devices_67?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Kindle-Paperwhite-reader-High-Resolution-Built/dp/B01BFIAY9C/ref=zg_bs_amazon-devices_68?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Screen-Protector-Amazon-Tablet-Generation/dp/B06Y5NBSX7/ref=zg_bs_amazon-devices_69?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Kindle-reader-Glare-Free-Touchscreen-Built/dp/B017JG41PC/ref=zg_bs_amazon-devices_70?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Sideclick-Remotes-SC2-FT16K-Universal-Attachment/dp/B01MRFY61G/ref=zg_bs_amazon-devices_71?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-10-Inch-Tablet-32GB-Black/dp/B01J6RPDWC/ref=zg_bs_amazon-devices_72?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/2-Year-Protection-Accident-release-delivered/dp/B01IQD7UAU/ref=zg_bs_amazon-devices_73?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Fire-7-Tablet-5th-Generation/dp/B00TSUGXKE/ref=zg_bs_amazon-devices_74?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Alexa-Voice-Remote-Amazon-Echo/dp/B01E9AHU8Q/ref=zg_bs_amazon-devices_75?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Echo-Spot-Adjustable-Stand-Black/dp/B06ZZY14LK/ref=zg_bs_amazon-devices_76?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Fire-TV-Stick-Streaming-Media-Player-Previous-Generation/dp/B00GDQ0RMG/ref=zg_bs_amazon-devices_77?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/All-New-Amazon-Kindle-Oasis-8GB-Grey/dp/B06XD5YCKX/ref=zg_bs_amazon-devices_78?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/amazon-fire-tv-stick-and-echo-dot-bundle/dp/B0758XXCSC/ref=zg_bs_amazon-devices_79?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fintie-Slimshell-Case-Kindle-Paperwhite/dp/B01M8LKA87/ref=zg_bs_amazon-devices_80?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Certified-Refurbished-Remote-Pendant-Streaming/dp/B06XTWZL2W/ref=zg_bs_amazon-devices_81?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Echo-Buttons-Alexa-Gadget-Pack/dp/B072C4KCQH/ref=zg_bs_amazon-devices_82?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Certified-Refurbished-Tablet-Hands-Free-Display/dp/B01MEG2HXP/ref=zg_bs_amazon-devices_83?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/OMOTON-Fire-HD-Screen-Protector/dp/B0144AAIWQ/ref=zg_bs_amazon-devices_84?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Protection-Accident-Paperwhite-release-delivered/dp/B00Y3D2MMO/ref=zg_bs_amazon-devices_85?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Certified-Refurbished-Kindle-Paperwhite-reader/dp/B00QJEL42Y/ref=zg_bs_amazon-devices_86?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/amazon-echo-dot-kids-edition/dp/B077JFK5YH/ref=zg_bs_amazon-devices_87?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NuPro-Zipper-Sleeve-Fire-Tablets/dp/B06Y62D69Z/ref=zg_bs_amazon-devices_88?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/All-New-Amazon-Fire-HD-10-Inch-Tablet-64GB-Blue/dp/B01NBIKAXU/ref=zg_bs_amazon-devices_89?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-JK29LP-Cascade-Dash-Button/dp/B01C3JB71G/ref=zg_bs_amazon-devices_90?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Verbatim-CD-R-700MB-Minute-Recordable/dp/B00029U1DU/ref=zg_bs_amazon-devices_91?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Echo-Case-fits-Generation/dp/B01K9KW9A4/ref=zg_bs_amazon-devices_92?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Certified-Refurbished-Kindle-reader-Touchscreen/dp/B0186FFTH4/ref=zg_bs_amazon-devices_93?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Kindle-Paperwhite-Leather-Case/dp/B007R5YG8S/ref=zg_bs_amazon-devices_94?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Punch/dp/B01J94TGZC/ref=zg_bs_amazon-devices_95?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Certified-Refurbished-Echo-Show-Black/dp/B01KIY9V0M/ref=zg_bs_amazon-devices_96?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/AWS-DeepLens-learning-enabled-developers/dp/B075Y3CK37/ref=zg_bs_amazon-devices_97?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Fire-HD-10-Tablet-Case-Punch-Red/dp/B01MRO1IZE/ref=zg_bs_amazon-devices_98?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Black/dp/B01J94TBWU/ref=zg_bs_amazon-devices_99?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fire-Tablet-Alexa-Display-Marine/dp/B01IO61D5C/ref=zg_bs_amazon-devices_100?_encoding=UTF8&amp;psc=1&amp;refRID=PD7X2JSP6Q7N9T91BCBM</t>
+  </si>
+  <si>
+    <t>Fire TV Stick with Alexa Voice Remote | Streaming Media Player</t>
+  </si>
+  <si>
+    <t>In Stock.</t>
+  </si>
+  <si>
+    <t>Echo Dot (2nd Generation) - Smart speaker with Alexa - Black</t>
+  </si>
+  <si>
+    <t>Fire TV Cube | Hands-Free with Alexa and 4K Ultra HD | Streaming Media Player</t>
+  </si>
+  <si>
+    <t>Certified Refurbished Fire TV Stick with Alexa Voice Remote | Streaming Media Player</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,9 +508,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1015,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A101"/>
+  <dimension ref="A2:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -1024,79 +1043,118 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="200.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="2">
+        <v>119.99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>53</v>
       </c>
